--- a/Code/Results/Cases/Case_2_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.79775517442411</v>
+        <v>12.38884992330517</v>
       </c>
       <c r="C2">
-        <v>8.148074793514928</v>
+        <v>12.54581670815302</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.49759998620263</v>
+        <v>16.99707910483048</v>
       </c>
       <c r="F2">
-        <v>26.03444331836061</v>
+        <v>38.35872261492172</v>
       </c>
       <c r="G2">
-        <v>22.18178938480628</v>
+        <v>32.65341674856203</v>
       </c>
       <c r="H2">
-        <v>9.196995233285902</v>
+        <v>15.41191880399084</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.746659806881111</v>
+        <v>8.159328671494469</v>
       </c>
       <c r="K2">
-        <v>10.20288186227551</v>
+        <v>8.002756177034765</v>
       </c>
       <c r="L2">
-        <v>7.764758112283523</v>
+        <v>12.35441517174404</v>
       </c>
       <c r="M2">
-        <v>10.63408084250387</v>
+        <v>15.61439809887665</v>
       </c>
       <c r="N2">
-        <v>13.08763090178011</v>
+        <v>20.15170681335833</v>
       </c>
       <c r="O2">
-        <v>14.86073501148706</v>
+        <v>23.94871825159753</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01166112611119</v>
+        <v>12.182900690301</v>
       </c>
       <c r="C3">
-        <v>8.226536767278024</v>
+        <v>12.57499759424271</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.3914959557093</v>
+        <v>17.01602150037447</v>
       </c>
       <c r="F3">
-        <v>25.64138028421413</v>
+        <v>38.40170507286052</v>
       </c>
       <c r="G3">
-        <v>22.12726971221638</v>
+        <v>32.75646789101586</v>
       </c>
       <c r="H3">
-        <v>9.273973550885779</v>
+        <v>15.45601497448684</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.690450713306134</v>
+        <v>8.14357779226928</v>
       </c>
       <c r="K3">
-        <v>9.675372427098921</v>
+        <v>7.845717438373098</v>
       </c>
       <c r="L3">
-        <v>7.60857453955069</v>
+        <v>12.35144222344896</v>
       </c>
       <c r="M3">
-        <v>10.27577732201291</v>
+        <v>15.5769369681318</v>
       </c>
       <c r="N3">
-        <v>13.26177808986712</v>
+        <v>20.20606974307067</v>
       </c>
       <c r="O3">
-        <v>14.94648036021552</v>
+        <v>24.02524754820314</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.50449625034889</v>
+        <v>12.05665463757624</v>
       </c>
       <c r="C4">
-        <v>8.276437783663605</v>
+        <v>12.59386898834525</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.33041296418121</v>
+        <v>17.02992135315145</v>
       </c>
       <c r="F4">
-        <v>25.41466219393561</v>
+        <v>38.43575774166634</v>
       </c>
       <c r="G4">
-        <v>22.11434905329796</v>
+        <v>32.82742948173702</v>
       </c>
       <c r="H4">
-        <v>9.325417762408824</v>
+        <v>15.48500033076746</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.655477737143035</v>
+        <v>8.133719458811397</v>
       </c>
       <c r="K4">
-        <v>9.335625189048463</v>
+        <v>7.748654586277483</v>
       </c>
       <c r="L4">
-        <v>7.513834164537483</v>
+        <v>12.35112123201859</v>
       </c>
       <c r="M4">
-        <v>10.05266181653345</v>
+        <v>15.55588709661162</v>
       </c>
       <c r="N4">
-        <v>13.37141123936247</v>
+        <v>20.24105889741367</v>
       </c>
       <c r="O4">
-        <v>15.00867453475103</v>
+        <v>24.07613855620889</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.29177066805471</v>
+        <v>12.0053257985865</v>
       </c>
       <c r="C5">
-        <v>8.297209706134787</v>
+        <v>12.60179983510527</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.30655194857104</v>
+        <v>17.03615700034855</v>
       </c>
       <c r="F5">
-        <v>25.32598651318438</v>
+        <v>38.45156085998552</v>
       </c>
       <c r="G5">
-        <v>22.11407832339027</v>
+        <v>32.8582755670365</v>
       </c>
       <c r="H5">
-        <v>9.347407356195841</v>
+        <v>15.49729292759783</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.641114479647667</v>
+        <v>8.129655400281605</v>
       </c>
       <c r="K5">
-        <v>9.193262746195744</v>
+        <v>7.708991118863493</v>
       </c>
       <c r="L5">
-        <v>7.475562566479576</v>
+        <v>12.35137023258481</v>
       </c>
       <c r="M5">
-        <v>9.961092896606004</v>
+        <v>15.54780578179775</v>
       </c>
       <c r="N5">
-        <v>13.41678181432774</v>
+        <v>20.25572325403168</v>
       </c>
       <c r="O5">
-        <v>15.03633867237591</v>
+        <v>24.09785798008969</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.25608600882836</v>
+        <v>11.99681169682676</v>
       </c>
       <c r="C6">
-        <v>8.300685342664856</v>
+        <v>12.60313129717007</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.30265230796755</v>
+        <v>17.03722695284632</v>
       </c>
       <c r="F6">
-        <v>25.31148712114122</v>
+        <v>38.4543012894117</v>
       </c>
       <c r="G6">
-        <v>22.11432980126463</v>
+        <v>32.86351388626736</v>
       </c>
       <c r="H6">
-        <v>9.351119947969286</v>
+        <v>15.49936315995382</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.638722863833441</v>
+        <v>8.128977756225419</v>
       </c>
       <c r="K6">
-        <v>9.169389745180673</v>
+        <v>7.702399943790285</v>
       </c>
       <c r="L6">
-        <v>7.469229197593618</v>
+        <v>12.35143456017437</v>
       </c>
       <c r="M6">
-        <v>9.945853022731523</v>
+        <v>15.54649405155186</v>
       </c>
       <c r="N6">
-        <v>13.42435788324305</v>
+        <v>20.2581828132085</v>
       </c>
       <c r="O6">
-        <v>15.04107005308041</v>
+        <v>24.10152371363733</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.50165169651551</v>
+        <v>12.05596183666964</v>
       </c>
       <c r="C7">
-        <v>8.276716148194796</v>
+        <v>12.59397497145909</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.3300869828745</v>
+        <v>17.03000313498533</v>
       </c>
       <c r="F7">
-        <v>25.41345120616249</v>
+        <v>38.43596306879199</v>
       </c>
       <c r="G7">
-        <v>22.11432541458608</v>
+        <v>32.82783767987604</v>
       </c>
       <c r="H7">
-        <v>9.325710201193287</v>
+        <v>15.48516416548678</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.655284474962201</v>
+        <v>8.133664838127444</v>
       </c>
       <c r="K7">
-        <v>9.333720971798575</v>
+        <v>7.748120045497593</v>
       </c>
       <c r="L7">
-        <v>7.513316600973549</v>
+        <v>12.35112305039189</v>
       </c>
       <c r="M7">
-        <v>10.0514293202786</v>
+        <v>15.55577609050469</v>
       </c>
       <c r="N7">
-        <v>13.37202029425676</v>
+        <v>20.24125502071922</v>
       </c>
       <c r="O7">
-        <v>15.00903833656832</v>
+        <v>24.07642750048461</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.53185149304815</v>
+        <v>12.31783445202839</v>
       </c>
       <c r="C8">
-        <v>8.174772313867566</v>
+        <v>12.55568062667336</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.46017734597855</v>
+        <v>17.00313995443027</v>
       </c>
       <c r="F8">
-        <v>25.89590518634371</v>
+        <v>38.37195297536663</v>
       </c>
       <c r="G8">
-        <v>22.15862251113093</v>
+        <v>32.68735055781622</v>
       </c>
       <c r="H8">
-        <v>9.222654338340757</v>
+        <v>15.4267270238416</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.727377005150605</v>
+        <v>8.153936850348362</v>
       </c>
       <c r="K8">
-        <v>10.02432661030882</v>
+        <v>7.948772572916868</v>
       </c>
       <c r="L8">
-        <v>7.710692766943908</v>
+        <v>12.35307879762047</v>
       </c>
       <c r="M8">
-        <v>10.51126256121637</v>
+        <v>15.60108017395888</v>
       </c>
       <c r="N8">
-        <v>13.14712362054715</v>
+        <v>20.17011765327837</v>
       </c>
       <c r="O8">
-        <v>14.88826926144059</v>
+        <v>23.97429564240671</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.47520067608428</v>
+        <v>12.83019295009828</v>
       </c>
       <c r="C9">
-        <v>7.988405550601088</v>
+        <v>12.48812672569453</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.74706966125794</v>
+        <v>16.96843090622716</v>
       </c>
       <c r="F9">
-        <v>26.95593236427617</v>
+        <v>38.30720191415585</v>
       </c>
       <c r="G9">
-        <v>22.41593067256598</v>
+        <v>32.47304612950107</v>
       </c>
       <c r="H9">
-        <v>9.054928576265274</v>
+        <v>15.32726497671237</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.86491580090085</v>
+        <v>8.192189184493207</v>
       </c>
       <c r="K9">
-        <v>11.25033357997553</v>
+        <v>8.334988342126294</v>
       </c>
       <c r="L9">
-        <v>8.104980780300204</v>
+        <v>12.36878086197829</v>
       </c>
       <c r="M9">
-        <v>11.38288091982954</v>
+        <v>15.70512869171441</v>
       </c>
       <c r="N9">
-        <v>12.72692381728197</v>
+        <v>20.04334097065694</v>
       </c>
       <c r="O9">
-        <v>14.73092959350688</v>
+        <v>23.80498194400749</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.77580935539326</v>
+        <v>13.20222899821678</v>
       </c>
       <c r="C10">
-        <v>7.859536312916172</v>
+        <v>12.4430499601404</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.9764834111519</v>
+        <v>16.95383446329299</v>
       </c>
       <c r="F10">
-        <v>27.80083321309107</v>
+        <v>38.29662447956206</v>
       </c>
       <c r="G10">
-        <v>22.71820643215396</v>
+        <v>32.35314710446899</v>
       </c>
       <c r="H10">
-        <v>8.954429507038617</v>
+        <v>15.26338395167545</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.963395680548009</v>
+        <v>8.219358801098153</v>
       </c>
       <c r="K10">
-        <v>12.07049687865724</v>
+        <v>8.61152559295733</v>
       </c>
       <c r="L10">
-        <v>8.396553007519808</v>
+        <v>12.387452299428</v>
       </c>
       <c r="M10">
-        <v>11.99851857261826</v>
+        <v>15.79045449268326</v>
       </c>
       <c r="N10">
-        <v>12.42994893482773</v>
+        <v>19.95788094936479</v>
       </c>
       <c r="O10">
-        <v>14.66908955323393</v>
+        <v>23.69947592641854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.33529087285658</v>
+        <v>13.36978225275151</v>
       </c>
       <c r="C11">
-        <v>7.802615368260957</v>
+        <v>12.4235235007072</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.08470898527886</v>
+        <v>16.94954935654398</v>
       </c>
       <c r="F11">
-        <v>28.19872030382635</v>
+        <v>38.29982099481899</v>
       </c>
       <c r="G11">
-        <v>22.88206928801988</v>
+        <v>32.30680267872511</v>
       </c>
       <c r="H11">
-        <v>8.914067936570319</v>
+        <v>15.23631255107111</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.007591914414826</v>
+        <v>8.231511926482531</v>
       </c>
       <c r="K11">
-        <v>12.42582265660664</v>
+        <v>8.735216742911629</v>
       </c>
       <c r="L11">
-        <v>8.529107651669781</v>
+        <v>12.39747213062963</v>
       </c>
       <c r="M11">
-        <v>12.27210261925456</v>
+        <v>15.83111019582092</v>
       </c>
       <c r="N11">
-        <v>12.2971806633599</v>
+        <v>19.92065551821522</v>
       </c>
       <c r="O11">
-        <v>14.65381467128545</v>
+        <v>23.6555822370687</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.54257080217397</v>
+        <v>13.43292895844154</v>
       </c>
       <c r="C12">
-        <v>7.781302273702312</v>
+        <v>12.41626947497909</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.12622948029112</v>
+        <v>16.94826407779072</v>
       </c>
       <c r="F12">
-        <v>28.35126163632761</v>
+        <v>38.30217966989543</v>
       </c>
       <c r="G12">
-        <v>22.94803680897618</v>
+        <v>32.29043548872561</v>
       </c>
       <c r="H12">
-        <v>8.899592175420379</v>
+        <v>15.22634677291281</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.0242373405072</v>
+        <v>8.236083903239038</v>
       </c>
       <c r="K12">
-        <v>12.55780611342421</v>
+        <v>8.781710170011129</v>
       </c>
       <c r="L12">
-        <v>8.579252042241253</v>
+        <v>12.40148359076144</v>
       </c>
       <c r="M12">
-        <v>12.37469329429041</v>
+        <v>15.84676199934775</v>
       </c>
       <c r="N12">
-        <v>12.24722106407768</v>
+        <v>19.90679543941126</v>
       </c>
       <c r="O12">
-        <v>14.64997955301455</v>
+        <v>23.63955086417895</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.49813252867801</v>
+        <v>13.41934353637541</v>
       </c>
       <c r="C13">
-        <v>7.785881733591454</v>
+        <v>12.41782553211386</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.11726366811861</v>
+        <v>16.94852590042867</v>
       </c>
       <c r="F13">
-        <v>28.31832717547679</v>
+        <v>38.3016206804099</v>
       </c>
       <c r="G13">
-        <v>22.93365347299528</v>
+        <v>32.29390781409639</v>
       </c>
       <c r="H13">
-        <v>8.902673208673644</v>
+        <v>15.22848038616205</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.020656547953443</v>
+        <v>8.235100594438672</v>
       </c>
       <c r="K13">
-        <v>12.52949561680779</v>
+        <v>8.771713007375839</v>
       </c>
       <c r="L13">
-        <v>8.568455422195889</v>
+        <v>12.40061003019473</v>
       </c>
       <c r="M13">
-        <v>12.35264460465288</v>
+        <v>15.84337983648829</v>
       </c>
       <c r="N13">
-        <v>12.25796695656104</v>
+        <v>19.90976995782439</v>
       </c>
       <c r="O13">
-        <v>14.65071720722422</v>
+        <v>23.64297725069815</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.35243553195805</v>
+        <v>13.37498375454761</v>
       </c>
       <c r="C14">
-        <v>7.800857102566744</v>
+        <v>12.42292390074369</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.08811422657097</v>
+        <v>16.94943686135462</v>
       </c>
       <c r="F14">
-        <v>28.21123292966087</v>
+        <v>38.29999205405002</v>
       </c>
       <c r="G14">
-        <v>22.88741731082221</v>
+        <v>32.30543242331313</v>
       </c>
       <c r="H14">
-        <v>8.912860580971966</v>
+        <v>15.23548693919053</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.0089631845465</v>
+        <v>8.231888672618471</v>
       </c>
       <c r="K14">
-        <v>12.43673259855229</v>
+        <v>8.739048949459608</v>
       </c>
       <c r="L14">
-        <v>8.533234301541157</v>
+        <v>12.39779781704567</v>
       </c>
       <c r="M14">
-        <v>12.2805634649256</v>
+        <v>15.83239278963491</v>
       </c>
       <c r="N14">
-        <v>12.29306421125544</v>
+        <v>19.91951050935151</v>
       </c>
       <c r="O14">
-        <v>14.65345950829931</v>
+        <v>23.65425149524282</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.26259627696142</v>
+        <v>13.34777105303781</v>
       </c>
       <c r="C15">
-        <v>7.810061322357069</v>
+        <v>12.42606504234902</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.07032885402798</v>
+        <v>16.95003875207456</v>
       </c>
       <c r="F15">
-        <v>28.14587588286757</v>
+        <v>38.29914389440219</v>
       </c>
       <c r="G15">
-        <v>22.85960986375702</v>
+        <v>32.31264566661207</v>
       </c>
       <c r="H15">
-        <v>8.919207075127119</v>
+        <v>15.23981583493916</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.001788729059621</v>
+        <v>8.229917337900069</v>
       </c>
       <c r="K15">
-        <v>12.37957745573982</v>
+        <v>8.718995023485956</v>
       </c>
       <c r="L15">
-        <v>8.511652565431794</v>
+        <v>12.39610346694061</v>
       </c>
       <c r="M15">
-        <v>12.23627803862753</v>
+        <v>15.82569604195703</v>
       </c>
       <c r="N15">
-        <v>12.31460301727759</v>
+        <v>19.92550763330857</v>
       </c>
       <c r="O15">
-        <v>14.65539609511305</v>
+        <v>23.66123417112835</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.73860217542246</v>
+        <v>13.19123989868508</v>
       </c>
       <c r="C16">
-        <v>7.86329021537771</v>
+        <v>12.44434571376887</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.96948685900502</v>
+        <v>16.9541617885602</v>
       </c>
       <c r="F16">
-        <v>27.77509623157083</v>
+        <v>38.29657645589549</v>
       </c>
       <c r="G16">
-        <v>22.7080390410472</v>
+        <v>32.35634110203488</v>
       </c>
       <c r="H16">
-        <v>8.957178210489413</v>
+        <v>15.26519311245922</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.96049487326685</v>
+        <v>8.218560372060937</v>
       </c>
       <c r="K16">
-        <v>12.04691644059203</v>
+        <v>8.603395973276401</v>
       </c>
       <c r="L16">
-        <v>8.38788516367908</v>
+        <v>12.38682799664319</v>
       </c>
       <c r="M16">
-        <v>11.98050197379728</v>
+        <v>15.78783388099898</v>
       </c>
       <c r="N16">
-        <v>12.43867097961847</v>
+        <v>19.96034685119874</v>
       </c>
       <c r="O16">
-        <v>14.67035504726061</v>
+        <v>23.70242705172195</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.40893893064035</v>
+        <v>13.09473771887669</v>
       </c>
       <c r="C17">
-        <v>7.896378173121102</v>
+        <v>12.45581068855789</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.90860074959665</v>
+        <v>16.95729343805207</v>
       </c>
       <c r="F17">
-        <v>27.55104795494511</v>
+        <v>38.29705036042183</v>
       </c>
       <c r="G17">
-        <v>22.62189950391306</v>
+        <v>32.38524923384378</v>
       </c>
       <c r="H17">
-        <v>8.981870440067247</v>
+        <v>15.2812702713088</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.935005111395109</v>
+        <v>8.211540035583271</v>
       </c>
       <c r="K17">
-        <v>11.83827499596256</v>
+        <v>8.531908800578627</v>
       </c>
       <c r="L17">
-        <v>8.311907847353018</v>
+        <v>12.38152708291958</v>
       </c>
       <c r="M17">
-        <v>11.8218742558808</v>
+        <v>15.7650722739049</v>
       </c>
       <c r="N17">
-        <v>12.51536628378498</v>
+        <v>19.98214167210305</v>
       </c>
       <c r="O17">
-        <v>14.68289555749339</v>
+        <v>23.72874835299766</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.21629458520634</v>
+        <v>13.03907673841531</v>
       </c>
       <c r="C18">
-        <v>7.915569910512094</v>
+        <v>12.46249723917542</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.87394549399302</v>
+        <v>16.95931641356522</v>
       </c>
       <c r="F18">
-        <v>27.42346021299396</v>
+        <v>38.29807695713819</v>
       </c>
       <c r="G18">
-        <v>22.57482832762367</v>
+        <v>32.4026478941235</v>
       </c>
       <c r="H18">
-        <v>8.996574464384981</v>
+        <v>15.29070460604733</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.920287572342199</v>
+        <v>8.207482717607215</v>
       </c>
       <c r="K18">
-        <v>11.71659772043648</v>
+        <v>8.490595337666111</v>
       </c>
       <c r="L18">
-        <v>8.268202076987205</v>
+        <v>12.37862192620703</v>
       </c>
       <c r="M18">
-        <v>11.73003056737183</v>
+        <v>15.75215415848361</v>
       </c>
       <c r="N18">
-        <v>12.55969954085518</v>
+        <v>19.99483291275699</v>
       </c>
       <c r="O18">
-        <v>14.69131250533196</v>
+        <v>23.74427370027948</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.15054669364788</v>
+        <v>13.02020603653152</v>
       </c>
       <c r="C19">
-        <v>7.92209555147844</v>
+        <v>12.4647770437555</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.86227501286719</v>
+        <v>16.96003947708224</v>
       </c>
       <c r="F19">
-        <v>27.3804831708039</v>
+        <v>38.2985541391457</v>
       </c>
       <c r="G19">
-        <v>22.55931169563</v>
+        <v>32.4086711681767</v>
       </c>
       <c r="H19">
-        <v>9.001638039960856</v>
+        <v>15.29393106868372</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.915294888526359</v>
+        <v>8.206105660295325</v>
       </c>
       <c r="K19">
-        <v>11.67511326254366</v>
+        <v>8.476575002621747</v>
       </c>
       <c r="L19">
-        <v>8.253404326852039</v>
+        <v>12.37766305338243</v>
       </c>
       <c r="M19">
-        <v>11.69883250736001</v>
+        <v>15.74781039789582</v>
       </c>
       <c r="N19">
-        <v>12.57474835897774</v>
+        <v>19.99915667553786</v>
       </c>
       <c r="O19">
-        <v>14.69436609554565</v>
+        <v>23.74959660425346</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.44434551153169</v>
+        <v>13.10502707087496</v>
       </c>
       <c r="C20">
-        <v>7.892839323649936</v>
+        <v>12.45458068429012</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.91504454948194</v>
+        <v>16.95693712862265</v>
       </c>
       <c r="F20">
-        <v>27.57476646842711</v>
+        <v>38.29692189631814</v>
       </c>
       <c r="G20">
-        <v>22.63081219971908</v>
+        <v>32.38209204309992</v>
       </c>
       <c r="H20">
-        <v>8.979189716723116</v>
+        <v>15.27953946066042</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.937724417739235</v>
+        <v>8.212289374144333</v>
       </c>
       <c r="K20">
-        <v>11.86065843734161</v>
+        <v>8.539539328282613</v>
       </c>
       <c r="L20">
-        <v>8.319996637613551</v>
+        <v>12.38207650878742</v>
       </c>
       <c r="M20">
-        <v>11.83882369117936</v>
+        <v>15.76747736163093</v>
       </c>
       <c r="N20">
-        <v>12.50717927960584</v>
+        <v>19.97980549638397</v>
       </c>
       <c r="O20">
-        <v>14.68143527032865</v>
+        <v>23.72590644969167</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.39535432468938</v>
+        <v>13.38802195549882</v>
       </c>
       <c r="C21">
-        <v>7.796451941035054</v>
+        <v>12.4214225853762</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.0966616724259</v>
+        <v>16.94916014349803</v>
       </c>
       <c r="F21">
-        <v>28.2426389613986</v>
+        <v>38.30043928886882</v>
       </c>
       <c r="G21">
-        <v>22.90089076422337</v>
+        <v>32.30201524873792</v>
       </c>
       <c r="H21">
-        <v>8.909846050607857</v>
+        <v>15.23342119713131</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.012400302582259</v>
+        <v>8.232832913803694</v>
       </c>
       <c r="K21">
-        <v>12.46404920104098</v>
+        <v>8.748652885528664</v>
       </c>
       <c r="L21">
-        <v>8.543581286511827</v>
+        <v>12.39861795718953</v>
       </c>
       <c r="M21">
-        <v>12.30176342070517</v>
+        <v>15.8356130613784</v>
       </c>
       <c r="N21">
-        <v>12.28274684276375</v>
+        <v>19.91664306571885</v>
       </c>
       <c r="O21">
-        <v>14.65260031936542</v>
+        <v>23.65092395480439</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.99019731068642</v>
+        <v>13.57118918586542</v>
       </c>
       <c r="C22">
-        <v>7.734864167544357</v>
+        <v>12.40056889710918</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.21848524668593</v>
+        <v>16.94604340301343</v>
       </c>
       <c r="F22">
-        <v>28.68999765871649</v>
+        <v>38.30942877726458</v>
       </c>
       <c r="G22">
-        <v>23.10027903362935</v>
+        <v>32.25657397757774</v>
       </c>
       <c r="H22">
-        <v>8.869256669203768</v>
+        <v>15.20494462854609</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.060674727134983</v>
+        <v>8.246083362020634</v>
       </c>
       <c r="K22">
-        <v>12.84341356941312</v>
+        <v>8.883287566339671</v>
       </c>
       <c r="L22">
-        <v>8.689392267515759</v>
+        <v>12.4106934188393</v>
       </c>
       <c r="M22">
-        <v>12.59840703848096</v>
+        <v>15.88163395570059</v>
       </c>
       <c r="N22">
-        <v>12.13790537109179</v>
+        <v>19.87674014026219</v>
       </c>
       <c r="O22">
-        <v>14.64516396917029</v>
+        <v>23.60535896573569</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.67514681962406</v>
+        <v>13.47361172737602</v>
       </c>
       <c r="C23">
-        <v>7.767607027692108</v>
+        <v>12.41162433500513</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.15318565634612</v>
+        <v>16.94752741395978</v>
       </c>
       <c r="F23">
-        <v>28.45026492647402</v>
+        <v>38.30402001342941</v>
       </c>
       <c r="G23">
-        <v>22.99173014103802</v>
+        <v>32.2801950024194</v>
       </c>
       <c r="H23">
-        <v>8.890473916700561</v>
+        <v>15.2199909334894</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.034959597933015</v>
+        <v>8.239027599987939</v>
       </c>
       <c r="K23">
-        <v>12.64231420900008</v>
+        <v>8.811629970331554</v>
       </c>
       <c r="L23">
-        <v>8.611611225259482</v>
+        <v>12.40413358796203</v>
       </c>
       <c r="M23">
-        <v>12.44064723619211</v>
+        <v>15.85693819424579</v>
       </c>
       <c r="N23">
-        <v>12.21504788476131</v>
+        <v>19.89791137802008</v>
       </c>
       <c r="O23">
-        <v>14.64805533239638</v>
+        <v>23.62936292599089</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.42834790690615</v>
+        <v>13.10037581278885</v>
       </c>
       <c r="C24">
-        <v>7.894438710766671</v>
+        <v>12.45513647269097</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.91213021921053</v>
+        <v>16.95709752281535</v>
       </c>
       <c r="F24">
-        <v>27.56403952077586</v>
+        <v>38.29697762561909</v>
       </c>
       <c r="G24">
-        <v>22.62677514350314</v>
+        <v>32.3835169828177</v>
       </c>
       <c r="H24">
-        <v>8.98040009188305</v>
+        <v>15.28032136404721</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.936495215684068</v>
+        <v>8.211950664284004</v>
       </c>
       <c r="K24">
-        <v>11.85054426001156</v>
+        <v>8.536090231656127</v>
       </c>
       <c r="L24">
-        <v>8.316339771640315</v>
+        <v>12.3818276695952</v>
       </c>
       <c r="M24">
-        <v>11.83116285907981</v>
+        <v>15.76638949805413</v>
       </c>
       <c r="N24">
-        <v>12.51087987498672</v>
+        <v>19.98086117950789</v>
       </c>
       <c r="O24">
-        <v>14.68209171345146</v>
+        <v>23.72719005041345</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.96743133622535</v>
+        <v>12.69209870575229</v>
       </c>
       <c r="C25">
-        <v>8.037393555524451</v>
+        <v>12.50559889700714</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.66612529138733</v>
+        <v>16.97590168093399</v>
       </c>
       <c r="F25">
-        <v>26.65728859906113</v>
+        <v>38.31821555256327</v>
       </c>
       <c r="G25">
-        <v>22.32707138963736</v>
+        <v>32.52444362110635</v>
       </c>
       <c r="H25">
-        <v>9.096447238770017</v>
+        <v>15.35255531618741</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.828142766758989</v>
+        <v>8.182003576582506</v>
       </c>
       <c r="K25">
-        <v>10.93268835384959</v>
+        <v>8.231580463888093</v>
       </c>
       <c r="L25">
-        <v>7.99780706431113</v>
+        <v>12.36327234538236</v>
       </c>
       <c r="M25">
-        <v>11.15101336381077</v>
+        <v>15.67539160562704</v>
       </c>
       <c r="N25">
-        <v>12.83846549663183</v>
+        <v>20.07628295302818</v>
       </c>
       <c r="O25">
-        <v>14.76444649847655</v>
+        <v>23.84746945933033</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.38884992330517</v>
+        <v>12.79775517442413</v>
       </c>
       <c r="C2">
-        <v>12.54581670815302</v>
+        <v>8.148074793515061</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.99707910483048</v>
+        <v>10.49759998620278</v>
       </c>
       <c r="F2">
-        <v>38.35872261492172</v>
+        <v>26.0344433183607</v>
       </c>
       <c r="G2">
-        <v>32.65341674856203</v>
+        <v>22.18178938480622</v>
       </c>
       <c r="H2">
-        <v>15.41191880399084</v>
+        <v>9.196995233285895</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.159328671494469</v>
+        <v>5.746659806881079</v>
       </c>
       <c r="K2">
-        <v>8.002756177034765</v>
+        <v>10.20288186227556</v>
       </c>
       <c r="L2">
-        <v>12.35441517174404</v>
+        <v>7.764758112283565</v>
       </c>
       <c r="M2">
-        <v>15.61439809887665</v>
+        <v>10.63408084250391</v>
       </c>
       <c r="N2">
-        <v>20.15170681335833</v>
+        <v>13.08763090178011</v>
       </c>
       <c r="O2">
-        <v>23.94871825159753</v>
+        <v>14.86073501148701</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.182900690301</v>
+        <v>12.01166112611121</v>
       </c>
       <c r="C3">
-        <v>12.57499759424271</v>
+        <v>8.226536767278155</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.01602150037447</v>
+        <v>10.39149595570931</v>
       </c>
       <c r="F3">
-        <v>38.40170507286052</v>
+        <v>25.64138028421425</v>
       </c>
       <c r="G3">
-        <v>32.75646789101586</v>
+        <v>22.12726971221664</v>
       </c>
       <c r="H3">
-        <v>15.45601497448684</v>
+        <v>9.273973550885911</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.14357779226928</v>
+        <v>5.690450713306167</v>
       </c>
       <c r="K3">
-        <v>7.845717438373098</v>
+        <v>9.675372427098832</v>
       </c>
       <c r="L3">
-        <v>12.35144222344896</v>
+        <v>7.608574539550683</v>
       </c>
       <c r="M3">
-        <v>15.5769369681318</v>
+        <v>10.27577732201296</v>
       </c>
       <c r="N3">
-        <v>20.20606974307067</v>
+        <v>13.26177808986716</v>
       </c>
       <c r="O3">
-        <v>24.02524754820314</v>
+        <v>14.94648036021572</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.05665463757624</v>
+        <v>11.50449625034883</v>
       </c>
       <c r="C4">
-        <v>12.59386898834525</v>
+        <v>8.276437783663473</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.02992135315145</v>
+        <v>10.33041296418116</v>
       </c>
       <c r="F4">
-        <v>38.43575774166634</v>
+        <v>25.41466219393549</v>
       </c>
       <c r="G4">
-        <v>32.82742948173702</v>
+        <v>22.11434905329791</v>
       </c>
       <c r="H4">
-        <v>15.48500033076746</v>
+        <v>9.325417762408756</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.133719458811397</v>
+        <v>5.655477737143037</v>
       </c>
       <c r="K4">
-        <v>7.748654586277483</v>
+        <v>9.335625189048431</v>
       </c>
       <c r="L4">
-        <v>12.35112123201859</v>
+        <v>7.513834164537458</v>
       </c>
       <c r="M4">
-        <v>15.55588709661162</v>
+        <v>10.05266181653342</v>
       </c>
       <c r="N4">
-        <v>20.24105889741367</v>
+        <v>13.37141123936244</v>
       </c>
       <c r="O4">
-        <v>24.07613855620889</v>
+        <v>15.00867453475096</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.0053257985865</v>
+        <v>11.29177066805472</v>
       </c>
       <c r="C5">
-        <v>12.60179983510527</v>
+        <v>8.29720970613465</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>17.03615700034855</v>
+        <v>10.30655194857081</v>
       </c>
       <c r="F5">
-        <v>38.45156085998552</v>
+        <v>25.32598651318422</v>
       </c>
       <c r="G5">
-        <v>32.8582755670365</v>
+        <v>22.11407832339004</v>
       </c>
       <c r="H5">
-        <v>15.49729292759783</v>
+        <v>9.347407356195776</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.129655400281605</v>
+        <v>5.64111447964754</v>
       </c>
       <c r="K5">
-        <v>7.708991118863493</v>
+        <v>9.19326274619573</v>
       </c>
       <c r="L5">
-        <v>12.35137023258481</v>
+        <v>7.475562566479437</v>
       </c>
       <c r="M5">
-        <v>15.54780578179775</v>
+        <v>9.961092896605942</v>
       </c>
       <c r="N5">
-        <v>20.25572325403168</v>
+        <v>13.41678181432763</v>
       </c>
       <c r="O5">
-        <v>24.09785798008969</v>
+        <v>15.03633867237581</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.99681169682676</v>
+        <v>11.25608600882838</v>
       </c>
       <c r="C6">
-        <v>12.60313129717007</v>
+        <v>8.300685342664719</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>17.03722695284632</v>
+        <v>10.30265230796755</v>
       </c>
       <c r="F6">
-        <v>38.4543012894117</v>
+        <v>25.31148712114151</v>
       </c>
       <c r="G6">
-        <v>32.86351388626736</v>
+        <v>22.11432980126506</v>
       </c>
       <c r="H6">
-        <v>15.49936315995382</v>
+        <v>9.351119947969472</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.128977756225419</v>
+        <v>5.638722863833408</v>
       </c>
       <c r="K6">
-        <v>7.702399943790285</v>
+        <v>9.169389745180604</v>
       </c>
       <c r="L6">
-        <v>12.35143456017437</v>
+        <v>7.469229197593656</v>
       </c>
       <c r="M6">
-        <v>15.54649405155186</v>
+        <v>9.945853022731582</v>
       </c>
       <c r="N6">
-        <v>20.2581828132085</v>
+        <v>13.42435788324322</v>
       </c>
       <c r="O6">
-        <v>24.10152371363733</v>
+        <v>15.0410700530807</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.05596183666964</v>
+        <v>11.50165169651553</v>
       </c>
       <c r="C7">
-        <v>12.59397497145909</v>
+        <v>8.276716148194931</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.03000313498533</v>
+        <v>10.33008698287446</v>
       </c>
       <c r="F7">
-        <v>38.43596306879199</v>
+        <v>25.41345120616253</v>
       </c>
       <c r="G7">
-        <v>32.82783767987604</v>
+        <v>22.11432541458613</v>
       </c>
       <c r="H7">
-        <v>15.48516416548678</v>
+        <v>9.325710201193353</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.133664838127444</v>
+        <v>5.655284474962199</v>
       </c>
       <c r="K7">
-        <v>7.748120045497593</v>
+        <v>9.333720971798584</v>
       </c>
       <c r="L7">
-        <v>12.35112305039189</v>
+        <v>7.513316600973504</v>
       </c>
       <c r="M7">
-        <v>15.55577609050469</v>
+        <v>10.05142932027858</v>
       </c>
       <c r="N7">
-        <v>20.24125502071922</v>
+        <v>13.37202029425683</v>
       </c>
       <c r="O7">
-        <v>24.07642750048461</v>
+        <v>15.00903833656839</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.31783445202839</v>
+        <v>12.53185149304815</v>
       </c>
       <c r="C8">
-        <v>12.55568062667336</v>
+        <v>8.174772313867432</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>17.00313995443027</v>
+        <v>10.4601773459785</v>
       </c>
       <c r="F8">
-        <v>38.37195297536663</v>
+        <v>25.89590518634381</v>
       </c>
       <c r="G8">
-        <v>32.68735055781622</v>
+        <v>22.15862251113121</v>
       </c>
       <c r="H8">
-        <v>15.4267270238416</v>
+        <v>9.222654338340879</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.153936850348362</v>
+        <v>5.727377005150669</v>
       </c>
       <c r="K8">
-        <v>7.948772572916868</v>
+        <v>10.02432661030879</v>
       </c>
       <c r="L8">
-        <v>12.35307879762047</v>
+        <v>7.710692766943934</v>
       </c>
       <c r="M8">
-        <v>15.60108017395888</v>
+        <v>10.51126256121638</v>
       </c>
       <c r="N8">
-        <v>20.17011765327837</v>
+        <v>13.14712362054725</v>
       </c>
       <c r="O8">
-        <v>23.97429564240671</v>
+        <v>14.8882692614407</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.83019295009828</v>
+        <v>14.4752006760843</v>
       </c>
       <c r="C9">
-        <v>12.48812672569453</v>
+        <v>7.988405550600685</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.96843090622716</v>
+        <v>10.74706966125795</v>
       </c>
       <c r="F9">
-        <v>38.30720191415585</v>
+        <v>26.9559323642761</v>
       </c>
       <c r="G9">
-        <v>32.47304612950107</v>
+        <v>22.41593067256596</v>
       </c>
       <c r="H9">
-        <v>15.32726497671237</v>
+        <v>9.05492857626526</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.192189184493207</v>
+        <v>5.864915800900791</v>
       </c>
       <c r="K9">
-        <v>8.334988342126294</v>
+        <v>11.25033357997549</v>
       </c>
       <c r="L9">
-        <v>12.36878086197829</v>
+        <v>8.104980780300247</v>
       </c>
       <c r="M9">
-        <v>15.70512869171441</v>
+        <v>11.38288091982955</v>
       </c>
       <c r="N9">
-        <v>20.04334097065694</v>
+        <v>12.72692381728194</v>
       </c>
       <c r="O9">
-        <v>23.80498194400749</v>
+        <v>14.73092959350686</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.20222899821678</v>
+        <v>15.77580935539331</v>
       </c>
       <c r="C10">
-        <v>12.4430499601404</v>
+        <v>7.859536312915905</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.95383446329299</v>
+        <v>10.97648341115185</v>
       </c>
       <c r="F10">
-        <v>38.29662447956206</v>
+        <v>27.80083321309105</v>
       </c>
       <c r="G10">
-        <v>32.35314710446899</v>
+        <v>22.71820643215401</v>
       </c>
       <c r="H10">
-        <v>15.26338395167545</v>
+        <v>8.954429507038553</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.219358801098153</v>
+        <v>5.963395680547953</v>
       </c>
       <c r="K10">
-        <v>8.61152559295733</v>
+        <v>12.07049687865725</v>
       </c>
       <c r="L10">
-        <v>12.387452299428</v>
+        <v>8.396553007519865</v>
       </c>
       <c r="M10">
-        <v>15.79045449268326</v>
+        <v>11.99851857261824</v>
       </c>
       <c r="N10">
-        <v>19.95788094936479</v>
+        <v>12.42994893482773</v>
       </c>
       <c r="O10">
-        <v>23.69947592641854</v>
+        <v>14.66908955323386</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.36978225275151</v>
+        <v>16.33529087285656</v>
       </c>
       <c r="C11">
-        <v>12.4235235007072</v>
+        <v>7.802615368261087</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.94954935654398</v>
+        <v>11.08470898527873</v>
       </c>
       <c r="F11">
-        <v>38.29982099481899</v>
+        <v>28.19872030382634</v>
       </c>
       <c r="G11">
-        <v>32.30680267872511</v>
+        <v>22.88206928802017</v>
       </c>
       <c r="H11">
-        <v>15.23631255107111</v>
+        <v>8.914067936570319</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.231511926482531</v>
+        <v>6.007591914414764</v>
       </c>
       <c r="K11">
-        <v>8.735216742911629</v>
+        <v>12.4258226566066</v>
       </c>
       <c r="L11">
-        <v>12.39747213062963</v>
+        <v>8.529107651669701</v>
       </c>
       <c r="M11">
-        <v>15.83111019582092</v>
+        <v>12.27210261925452</v>
       </c>
       <c r="N11">
-        <v>19.92065551821522</v>
+        <v>12.29718066335994</v>
       </c>
       <c r="O11">
-        <v>23.6555822370687</v>
+        <v>14.65381467128551</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.43292895844154</v>
+        <v>16.54257080217402</v>
       </c>
       <c r="C12">
-        <v>12.41626947497909</v>
+        <v>7.781302273702312</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.94826407779072</v>
+        <v>11.12622948029117</v>
       </c>
       <c r="F12">
-        <v>38.30217966989543</v>
+        <v>28.35126163632757</v>
       </c>
       <c r="G12">
-        <v>32.29043548872561</v>
+        <v>22.9480368089761</v>
       </c>
       <c r="H12">
-        <v>15.22634677291281</v>
+        <v>8.899592175420318</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.236083903239038</v>
+        <v>6.024237340507138</v>
       </c>
       <c r="K12">
-        <v>8.781710170011129</v>
+        <v>12.55780611342425</v>
       </c>
       <c r="L12">
-        <v>12.40148359076144</v>
+        <v>8.579252042241263</v>
       </c>
       <c r="M12">
-        <v>15.84676199934775</v>
+        <v>12.37469329429042</v>
       </c>
       <c r="N12">
-        <v>19.90679543941126</v>
+        <v>12.24722106407761</v>
       </c>
       <c r="O12">
-        <v>23.63955086417895</v>
+        <v>14.64997955301442</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.41934353637541</v>
+        <v>16.49813252867809</v>
       </c>
       <c r="C13">
-        <v>12.41782553211386</v>
+        <v>7.78588173359132</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.94852590042867</v>
+        <v>11.11726366811865</v>
       </c>
       <c r="F13">
-        <v>38.3016206804099</v>
+        <v>28.31832717547679</v>
       </c>
       <c r="G13">
-        <v>32.29390781409639</v>
+        <v>22.93365347299517</v>
       </c>
       <c r="H13">
-        <v>15.22848038616205</v>
+        <v>8.902673208673644</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.235100594438672</v>
+        <v>6.020656547953385</v>
       </c>
       <c r="K13">
-        <v>8.771713007375839</v>
+        <v>12.52949561680787</v>
       </c>
       <c r="L13">
-        <v>12.40061003019473</v>
+        <v>8.568455422195902</v>
       </c>
       <c r="M13">
-        <v>15.84337983648829</v>
+        <v>12.35264460465286</v>
       </c>
       <c r="N13">
-        <v>19.90976995782439</v>
+        <v>12.25796695656108</v>
       </c>
       <c r="O13">
-        <v>23.64297725069815</v>
+        <v>14.65071720722419</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.37498375454761</v>
+        <v>16.35243553195804</v>
       </c>
       <c r="C14">
-        <v>12.42292390074369</v>
+        <v>7.800857102566609</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.94943686135462</v>
+        <v>11.08811422657102</v>
       </c>
       <c r="F14">
-        <v>38.29999205405002</v>
+        <v>28.21123292966097</v>
       </c>
       <c r="G14">
-        <v>32.30543242331313</v>
+        <v>22.88741731082212</v>
       </c>
       <c r="H14">
-        <v>15.23548693919053</v>
+        <v>8.912860580972136</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.231888672618471</v>
+        <v>6.008963184546493</v>
       </c>
       <c r="K14">
-        <v>8.739048949459608</v>
+        <v>12.43673259855226</v>
       </c>
       <c r="L14">
-        <v>12.39779781704567</v>
+        <v>8.533234301541199</v>
       </c>
       <c r="M14">
-        <v>15.83239278963491</v>
+        <v>12.28056346492562</v>
       </c>
       <c r="N14">
-        <v>19.91951050935151</v>
+        <v>12.29306421125551</v>
       </c>
       <c r="O14">
-        <v>23.65425149524282</v>
+        <v>14.6534595082994</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.34777105303781</v>
+        <v>16.26259627696147</v>
       </c>
       <c r="C15">
-        <v>12.42606504234902</v>
+        <v>7.810061322357203</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.95003875207456</v>
+        <v>11.07032885402807</v>
       </c>
       <c r="F15">
-        <v>38.29914389440219</v>
+        <v>28.14587588286762</v>
       </c>
       <c r="G15">
-        <v>32.31264566661207</v>
+        <v>22.85960986375697</v>
       </c>
       <c r="H15">
-        <v>15.23981583493916</v>
+        <v>8.919207075127115</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.229917337900069</v>
+        <v>6.00178872905959</v>
       </c>
       <c r="K15">
-        <v>8.718995023485956</v>
+        <v>12.37957745573986</v>
       </c>
       <c r="L15">
-        <v>12.39610346694061</v>
+        <v>8.511652565431879</v>
       </c>
       <c r="M15">
-        <v>15.82569604195703</v>
+        <v>12.23627803862755</v>
       </c>
       <c r="N15">
-        <v>19.92550763330857</v>
+        <v>12.31460301727759</v>
       </c>
       <c r="O15">
-        <v>23.66123417112835</v>
+        <v>14.65539609511301</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.19123989868508</v>
+        <v>15.73860217542247</v>
       </c>
       <c r="C16">
-        <v>12.44434571376887</v>
+        <v>7.863290215377307</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.9541617885602</v>
+        <v>10.96948685900501</v>
       </c>
       <c r="F16">
-        <v>38.29657645589549</v>
+        <v>27.77509623157085</v>
       </c>
       <c r="G16">
-        <v>32.35634110203488</v>
+        <v>22.70803904104723</v>
       </c>
       <c r="H16">
-        <v>15.26519311245922</v>
+        <v>8.957178210489465</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.218560372060937</v>
+        <v>5.960494873266794</v>
       </c>
       <c r="K16">
-        <v>8.603395973276401</v>
+        <v>12.04691644059201</v>
       </c>
       <c r="L16">
-        <v>12.38682799664319</v>
+        <v>8.387885163679174</v>
       </c>
       <c r="M16">
-        <v>15.78783388099898</v>
+        <v>11.9805019737973</v>
       </c>
       <c r="N16">
-        <v>19.96034685119874</v>
+        <v>12.43867097961847</v>
       </c>
       <c r="O16">
-        <v>23.70242705172195</v>
+        <v>14.67035504726065</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.09473771887669</v>
+        <v>15.40893893064034</v>
       </c>
       <c r="C17">
-        <v>12.45581068855789</v>
+        <v>7.896378173121234</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.95729343805207</v>
+        <v>10.90860074959666</v>
       </c>
       <c r="F17">
-        <v>38.29705036042183</v>
+        <v>27.55104795494507</v>
       </c>
       <c r="G17">
-        <v>32.38524923384378</v>
+        <v>22.62189950391305</v>
       </c>
       <c r="H17">
-        <v>15.2812702713088</v>
+        <v>8.981870440067121</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.211540035583271</v>
+        <v>5.935005111395079</v>
       </c>
       <c r="K17">
-        <v>8.531908800578627</v>
+        <v>11.83827499596253</v>
       </c>
       <c r="L17">
-        <v>12.38152708291958</v>
+        <v>8.311907847353005</v>
       </c>
       <c r="M17">
-        <v>15.7650722739049</v>
+        <v>11.8218742558808</v>
       </c>
       <c r="N17">
-        <v>19.98214167210305</v>
+        <v>12.51536628378492</v>
       </c>
       <c r="O17">
-        <v>23.72874835299766</v>
+        <v>14.68289555749335</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.03907673841531</v>
+        <v>15.21629458520637</v>
       </c>
       <c r="C18">
-        <v>12.46249723917542</v>
+        <v>7.915569910511959</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.95931641356522</v>
+        <v>10.87394549399297</v>
       </c>
       <c r="F18">
-        <v>38.29807695713819</v>
+        <v>27.42346021299389</v>
       </c>
       <c r="G18">
-        <v>32.4026478941235</v>
+        <v>22.57482832762353</v>
       </c>
       <c r="H18">
-        <v>15.29070460604733</v>
+        <v>8.996574464384931</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.207482717607215</v>
+        <v>5.920287572342173</v>
       </c>
       <c r="K18">
-        <v>8.490595337666111</v>
+        <v>11.71659772043654</v>
       </c>
       <c r="L18">
-        <v>12.37862192620703</v>
+        <v>8.268202076987212</v>
       </c>
       <c r="M18">
-        <v>15.75215415848361</v>
+        <v>11.7300305673718</v>
       </c>
       <c r="N18">
-        <v>19.99483291275699</v>
+        <v>12.55969954085515</v>
       </c>
       <c r="O18">
-        <v>23.74427370027948</v>
+        <v>14.69131250533189</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.02020603653152</v>
+        <v>15.15054669364788</v>
       </c>
       <c r="C19">
-        <v>12.4647770437555</v>
+        <v>7.922095551478304</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.96003947708224</v>
+        <v>10.86227501286701</v>
       </c>
       <c r="F19">
-        <v>38.2985541391457</v>
+        <v>27.38048317080383</v>
       </c>
       <c r="G19">
-        <v>32.4086711681767</v>
+        <v>22.55931169563009</v>
       </c>
       <c r="H19">
-        <v>15.29393106868372</v>
+        <v>9.001638039960861</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.206105660295325</v>
+        <v>5.915294888526356</v>
       </c>
       <c r="K19">
-        <v>8.476575002621747</v>
+        <v>11.67511326254362</v>
       </c>
       <c r="L19">
-        <v>12.37766305338243</v>
+        <v>8.253404326851985</v>
       </c>
       <c r="M19">
-        <v>15.74781039789582</v>
+        <v>11.69883250735996</v>
       </c>
       <c r="N19">
-        <v>19.99915667553786</v>
+        <v>12.57474835897774</v>
       </c>
       <c r="O19">
-        <v>23.74959660425346</v>
+        <v>14.69436609554567</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.10502707087496</v>
+        <v>15.44434551153176</v>
       </c>
       <c r="C20">
-        <v>12.45458068429012</v>
+        <v>7.892839323650071</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.95693712862265</v>
+        <v>10.91504454948199</v>
       </c>
       <c r="F20">
-        <v>38.29692189631814</v>
+        <v>27.57476646842705</v>
       </c>
       <c r="G20">
-        <v>32.38209204309992</v>
+        <v>22.63081219971891</v>
       </c>
       <c r="H20">
-        <v>15.27953946066042</v>
+        <v>8.979189716722999</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.212289374144333</v>
+        <v>5.937724417739176</v>
       </c>
       <c r="K20">
-        <v>8.539539328282613</v>
+        <v>11.86065843734171</v>
       </c>
       <c r="L20">
-        <v>12.38207650878742</v>
+        <v>8.319996637613563</v>
       </c>
       <c r="M20">
-        <v>15.76747736163093</v>
+        <v>11.83882369117934</v>
       </c>
       <c r="N20">
-        <v>19.97980549638397</v>
+        <v>12.50717927960581</v>
       </c>
       <c r="O20">
-        <v>23.72590644969167</v>
+        <v>14.6814352703285</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.38802195549882</v>
+        <v>16.3953543246894</v>
       </c>
       <c r="C21">
-        <v>12.4214225853762</v>
+        <v>7.796451941035189</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.94916014349803</v>
+        <v>11.09666167242592</v>
       </c>
       <c r="F21">
-        <v>38.30043928886882</v>
+        <v>28.24263896139851</v>
       </c>
       <c r="G21">
-        <v>32.30201524873792</v>
+        <v>22.90089076422313</v>
       </c>
       <c r="H21">
-        <v>15.23342119713131</v>
+        <v>8.909846050607857</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.232832913803694</v>
+        <v>6.012400302582258</v>
       </c>
       <c r="K21">
-        <v>8.748652885528664</v>
+        <v>12.46404920104102</v>
       </c>
       <c r="L21">
-        <v>12.39861795718953</v>
+        <v>8.54358128651184</v>
       </c>
       <c r="M21">
-        <v>15.8356130613784</v>
+        <v>12.30176342070517</v>
       </c>
       <c r="N21">
-        <v>19.91664306571885</v>
+        <v>12.28274684276365</v>
       </c>
       <c r="O21">
-        <v>23.65092395480439</v>
+        <v>14.65260031936529</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.57118918586542</v>
+        <v>16.99019731068639</v>
       </c>
       <c r="C22">
-        <v>12.40056889710918</v>
+        <v>7.73486416754436</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.94604340301343</v>
+        <v>11.21848524668602</v>
       </c>
       <c r="F22">
-        <v>38.30942877726458</v>
+        <v>28.68999765871656</v>
       </c>
       <c r="G22">
-        <v>32.25657397757774</v>
+        <v>23.10027903362932</v>
       </c>
       <c r="H22">
-        <v>15.20494462854609</v>
+        <v>8.869256669203768</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.246083362020634</v>
+        <v>6.060674727134988</v>
       </c>
       <c r="K22">
-        <v>8.883287566339671</v>
+        <v>12.84341356941311</v>
       </c>
       <c r="L22">
-        <v>12.4106934188393</v>
+        <v>8.689392267515833</v>
       </c>
       <c r="M22">
-        <v>15.88163395570059</v>
+        <v>12.59840703848098</v>
       </c>
       <c r="N22">
-        <v>19.87674014026219</v>
+        <v>12.13790537109179</v>
       </c>
       <c r="O22">
-        <v>23.60535896573569</v>
+        <v>14.64516396917028</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.47361172737602</v>
+        <v>16.67514681962414</v>
       </c>
       <c r="C23">
-        <v>12.41162433500513</v>
+        <v>7.767607027691972</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.94752741395978</v>
+        <v>11.15318565634617</v>
       </c>
       <c r="F23">
-        <v>38.30402001342941</v>
+        <v>28.45026492647393</v>
       </c>
       <c r="G23">
-        <v>32.2801950024194</v>
+        <v>22.99173014103783</v>
       </c>
       <c r="H23">
-        <v>15.2199909334894</v>
+        <v>8.890473916700456</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.239027599987939</v>
+        <v>6.03495959793295</v>
       </c>
       <c r="K23">
-        <v>8.811629970331554</v>
+        <v>12.64231420900015</v>
       </c>
       <c r="L23">
-        <v>12.40413358796203</v>
+        <v>8.611611225259521</v>
       </c>
       <c r="M23">
-        <v>15.85693819424579</v>
+        <v>12.44064723619211</v>
       </c>
       <c r="N23">
-        <v>19.89791137802008</v>
+        <v>12.2150478847612</v>
       </c>
       <c r="O23">
-        <v>23.62936292599089</v>
+        <v>14.64805533239621</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.10037581278885</v>
+        <v>15.42834790690617</v>
       </c>
       <c r="C24">
-        <v>12.45513647269097</v>
+        <v>7.894438710766803</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.95709752281535</v>
+        <v>10.91213021921047</v>
       </c>
       <c r="F24">
-        <v>38.29697762561909</v>
+        <v>27.5640395207758</v>
       </c>
       <c r="G24">
-        <v>32.3835169828177</v>
+        <v>22.62677514350299</v>
       </c>
       <c r="H24">
-        <v>15.28032136404721</v>
+        <v>8.980400091883226</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.211950664284004</v>
+        <v>5.936495215684066</v>
       </c>
       <c r="K24">
-        <v>8.536090231656127</v>
+        <v>11.8505442600116</v>
       </c>
       <c r="L24">
-        <v>12.3818276695952</v>
+        <v>8.316339771640271</v>
       </c>
       <c r="M24">
-        <v>15.76638949805413</v>
+        <v>11.83116285907978</v>
       </c>
       <c r="N24">
-        <v>19.98086117950789</v>
+        <v>12.51087987498676</v>
       </c>
       <c r="O24">
-        <v>23.72719005041345</v>
+        <v>14.68209171345146</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.69209870575229</v>
+        <v>13.96743133622533</v>
       </c>
       <c r="C25">
-        <v>12.50559889700714</v>
+        <v>8.037393555524583</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.97590168093399</v>
+        <v>10.66612529138739</v>
       </c>
       <c r="F25">
-        <v>38.31821555256327</v>
+        <v>26.65728859906109</v>
       </c>
       <c r="G25">
-        <v>32.52444362110635</v>
+        <v>22.32707138963736</v>
       </c>
       <c r="H25">
-        <v>15.35255531618741</v>
+        <v>9.096447238770015</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.182003576582506</v>
+        <v>5.828142766759052</v>
       </c>
       <c r="K25">
-        <v>8.231580463888093</v>
+        <v>10.93268835384958</v>
       </c>
       <c r="L25">
-        <v>12.36327234538236</v>
+        <v>7.997807064311132</v>
       </c>
       <c r="M25">
-        <v>15.67539160562704</v>
+        <v>11.15101336381078</v>
       </c>
       <c r="N25">
-        <v>20.07628295302818</v>
+        <v>12.83846549663183</v>
       </c>
       <c r="O25">
-        <v>23.84746945933033</v>
+        <v>14.76444649847654</v>
       </c>
     </row>
   </sheetData>
